--- a/Dataset/teaching_application.xlsx
+++ b/Dataset/teaching_application.xlsx
@@ -56,7 +56,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-1010000]d/m/yy;@"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -153,10 +153,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -442,12 +442,12 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="8.81640625" bestFit="1" customWidth="1"/>
@@ -471,13 +471,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="2">
@@ -488,13 +488,13 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="2">
@@ -505,14 +505,14 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5">
-        <v>45052</v>
+      <c r="C4" s="6">
+        <v>45082</v>
       </c>
       <c r="D4" s="2">
         <v>9</v>
@@ -522,13 +522,13 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2">
@@ -539,14 +539,14 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="5">
-        <v>45482</v>
+      <c r="C6" s="6">
+        <v>45542</v>
       </c>
       <c r="D6" s="2">
         <v>10</v>
